--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingebor Rubio\Desktop\Trabajos\Quinto Semestre\Mineria\HDT3-ArbolesDeDecision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B8A80-6D99-4525-84C3-79618A1B32A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ECDD30-715A-4DDF-82D8-029867167F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="4284" windowWidth="12240" windowHeight="6336" xr2:uid="{BAA14042-171E-47F9-86EC-87781BD5A5C4}"/>
+    <workbookView xWindow="2736" yWindow="480" windowWidth="11004" windowHeight="8964" xr2:uid="{BAA14042-171E-47F9-86EC-87781BD5A5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -283,6 +283,93 @@
   </si>
   <si>
     <t>SalePrice</t>
+  </si>
+  <si>
+    <t>Variables interesantes a estudiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSSubClass </t>
+  </si>
+  <si>
+    <t>Building class</t>
+  </si>
+  <si>
+    <t>Lot size in square feet</t>
+  </si>
+  <si>
+    <t>Proximity to main road or railroad</t>
+  </si>
+  <si>
+    <t>Proximity to main road or railroad (if a second is present)</t>
+  </si>
+  <si>
+    <t>Type of dwelling</t>
+  </si>
+  <si>
+    <t>Style of dwelling</t>
+  </si>
+  <si>
+    <t>Overall material and finish quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverallCond </t>
+  </si>
+  <si>
+    <t>Overall condition rating</t>
+  </si>
+  <si>
+    <t>Original construction date</t>
+  </si>
+  <si>
+    <t>Remodel date</t>
+  </si>
+  <si>
+    <t>BSmtCond</t>
+  </si>
+  <si>
+    <t>General condition of basement</t>
+  </si>
+  <si>
+    <t>Total square feet of basement area</t>
+  </si>
+  <si>
+    <t>Type of heating</t>
+  </si>
+  <si>
+    <t>Basement full bathrooms</t>
+  </si>
+  <si>
+    <t>Full bathrooms above grade</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>Number of bedrooms above basement level</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Number of kitchens</t>
+  </si>
+  <si>
+    <t>Number of fireplaces</t>
+  </si>
+  <si>
+    <t>Garage location</t>
+  </si>
+  <si>
+    <t>Pool area in square feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaleType </t>
+  </si>
+  <si>
+    <t>Type of sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale price in dollars, </t>
   </si>
 </sst>
 </file>
@@ -298,12 +385,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,8 +411,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,18 +728,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7409100-6DF2-40E2-AF5A-4B7858FF8871}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +750,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,176 +764,308 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -843,7 +1073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -851,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>61</v>
       </c>
@@ -859,7 +1089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>63</v>
       </c>
@@ -867,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -875,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -883,7 +1113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>69</v>
       </c>
@@ -891,7 +1121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -899,7 +1129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>71</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingebor Rubio\Desktop\Trabajos\Quinto Semestre\Mineria\HDT3-ArbolesDeDecision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ECDD30-715A-4DDF-82D8-029867167F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E46A62-7314-48D5-A825-305A9232A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="480" windowWidth="11004" windowHeight="8964" xr2:uid="{BAA14042-171E-47F9-86EC-87781BD5A5C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAA14042-171E-47F9-86EC-87781BD5A5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +732,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +891,7 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
@@ -904,7 +905,7 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F12" t="s">
@@ -918,7 +919,7 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
@@ -932,7 +933,7 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
